--- a/бдUsers.xlsx
+++ b/бдUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8724" windowHeight="6228"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -585,19 +585,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H21"/>
+  <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>78</v>
       </c>
@@ -619,8 +620,12 @@
       <c r="H1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I1">
+        <f ca="1">RANDBETWEEN(80000000000,99999999999)</f>
+        <v>83130662196</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -641,10 +646,14 @@
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H21" ca="1" si="0">RANDBETWEEN(10000,99999)</f>
-        <v>55540</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+        <v>30544</v>
+      </c>
+      <c r="I2">
+        <f ca="1">RANDBETWEEN(80000000000,99999999999)</f>
+        <v>82777872464</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -665,10 +674,14 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>78155</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+        <v>91938</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I2:I21" ca="1" si="1">RANDBETWEEN(80000000000,99999999999)</f>
+        <v>97737582557</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -689,10 +702,14 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>56286</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+        <v>88849</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="1"/>
+        <v>94196733240</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -713,10 +730,14 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>57089</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+        <v>49735</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="1"/>
+        <v>86815856977</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -737,10 +758,14 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>91948</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+        <v>84269</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="1"/>
+        <v>86175025030</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>43</v>
       </c>
@@ -761,10 +786,14 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>51625</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>71941</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="1"/>
+        <v>99560249220</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>52</v>
       </c>
@@ -785,10 +814,14 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>97327</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+        <v>92646</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="1"/>
+        <v>89123371608</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -809,10 +842,14 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>95631</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>25870</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="1"/>
+        <v>85810966611</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -833,10 +870,14 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>32900</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+        <v>73764</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="1"/>
+        <v>91145040883</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -857,10 +898,14 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>70322</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>19424</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="1"/>
+        <v>99144931925</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>46</v>
       </c>
@@ -881,10 +926,14 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>72639</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+        <v>10911</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="1"/>
+        <v>92331810491</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>55</v>
       </c>
@@ -905,10 +954,14 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>47083</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+        <v>93582</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="1"/>
+        <v>86259009136</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -929,10 +982,14 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>44899</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+        <v>66874</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="1"/>
+        <v>87056939022</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -953,10 +1010,14 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>58845</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+        <v>66487</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="1"/>
+        <v>93424041512</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -977,10 +1038,14 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>86841</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+        <v>42802</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="1"/>
+        <v>99909346762</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -1001,10 +1066,14 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>23147</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+        <v>96312</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="1"/>
+        <v>98151932340</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>49</v>
       </c>
@@ -1025,10 +1094,14 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>95148</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+        <v>70112</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="1"/>
+        <v>96417243015</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -1049,10 +1122,14 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>87437</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+        <v>75733</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="1"/>
+        <v>87092618480</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>40</v>
       </c>
@@ -1073,10 +1150,14 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>59015</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+        <v>98586</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="1"/>
+        <v>84399312863</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>31</v>
       </c>
@@ -1097,7 +1178,11 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>34173</v>
+        <v>60763</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="1"/>
+        <v>91976313025</v>
       </c>
     </row>
   </sheetData>
